--- a/NetworkBuilder/vol_df.xlsx
+++ b/NetworkBuilder/vol_df.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luvi/Desktop/social-networks-project/NetworkBuilder/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D871AA-4C0D-0644-A9AD-EA394A7FA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9180" yWindow="460" windowWidth="16100" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Block</t>
   </si>
@@ -271,9 +277,6 @@
     <t>655342</t>
   </si>
   <si>
-    <t>655315</t>
-  </si>
-  <si>
     <t>655362</t>
   </si>
   <si>
@@ -404,49 +407,13 @@
   </si>
   <si>
     <t>655313</t>
-  </si>
-  <si>
-    <t>24.035536758573013</t>
-  </si>
-  <si>
-    <t>4.520071600398303</t>
-  </si>
-  <si>
-    <t>21.02475341980591</t>
-  </si>
-  <si>
-    <t>13.703780367607834</t>
-  </si>
-  <si>
-    <t>9.48525516022329</t>
-  </si>
-  <si>
-    <t>5.81414622826406</t>
-  </si>
-  <si>
-    <t>8.623665641182386</t>
-  </si>
-  <si>
-    <t>34.849351004782726</t>
-  </si>
-  <si>
-    <t>6.982546552915479</t>
-  </si>
-  <si>
-    <t>19.52630691703338</t>
-  </si>
-  <si>
-    <t>22.480690542612756</t>
-  </si>
-  <si>
-    <t>8.69717237225549</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,17 +465,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -555,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +563,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,6 +615,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,14 +808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="156" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,1412 +825,1412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43">
+        <v>22.480690542612699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48">
+        <v>22.480690542612699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="C66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68">
+        <v>22.480690542612699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="B85">
+        <v>655315</v>
+      </c>
+      <c r="C85">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>8.6971723722554906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>19.526306917033299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>8.6236656411823809</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>24.035536758572999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>34.849351004782697</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>4.5200716003982997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>21.024753419805901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>13.7037803676078</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>9.4852551602232893</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>5.8141462282640601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>6.98254655291547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>9.4852551602232893</v>
       </c>
     </row>
   </sheetData>
